--- a/bulkRNAseq_analyses/METASCAPE/SupplementaryFigure3g_cluster2.liver.up_metascape_result.xlsx
+++ b/bulkRNAseq_analyses/METASCAPE/SupplementaryFigure3g_cluster2.liver.up_metascape_result.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,7 +550,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>GeneSymbol</t>
+          <t>MyList</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>R-MMU-373076 Class A/1 (Rhodopsin-like rece</t>
+          <t>GO:0042119 neutrophil activation</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -590,34 +590,34 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>GO:0007264 small GTPase mediated signal t</t>
+          <t>mmu04068 FoxO signaling pathway</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>GO:0001818 negative regulation of cytokin</t>
+          <t>GO:0035023 regulation of Rho protein sign</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>R-MMU-109581 Apoptosis</t>
+          <t>GO:0045765 regulation of angiogenesis</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>GO:0002253 activation of immune response</t>
+          <t>GO:0120031 plasma membrane bounded cell p</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sun1</t>
+          <t>Cdkn2d</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>77053</t>
+          <t>12581</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77053</t>
+          <t>12581</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -642,106 +642,86 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Slc17a9</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>228993</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>symbol</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>M. musculus</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>228993</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>M. musculus</t>
-        </is>
-      </c>
+          <t>Gm20696</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ctsw</t>
+          <t>Gm8995</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13041</t>
+          <t>668139</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -756,7 +736,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13041</t>
+          <t>668139</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -766,49 +746,49 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hist1h1d</t>
+          <t>S1pr1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14957</t>
+          <t>13609</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gene_synonym</t>
+          <t>symbol</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -818,7 +798,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14957</t>
+          <t>13609</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -828,44 +808,44 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Arhgef18</t>
+          <t>Cd55</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>102098</t>
+          <t>13136</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -880,7 +860,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>102098</t>
+          <t>13136</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -890,49 +870,49 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A430078G23Rik</t>
+          <t>Igfbp4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>102098</t>
+          <t>16010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gene_synonym</t>
+          <t>symbol</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -942,7 +922,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>102098</t>
+          <t>16010</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -952,44 +932,44 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Galnt10</t>
+          <t>Prg4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>171212</t>
+          <t>96875</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1004,7 +984,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>171212</t>
+          <t>96875</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1014,44 +994,44 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ncln</t>
+          <t>Klf2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>103425</t>
+          <t>16598</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1066,7 +1046,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>103425</t>
+          <t>16598</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1076,44 +1056,44 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gm45552</t>
+          <t>Txnip</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>118567527</t>
+          <t>56338</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1128,7 +1108,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>118567527</t>
+          <t>56338</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1138,44 +1118,44 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Add3</t>
+          <t>Tdrp</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>27360</t>
+          <t>72148</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1190,7 +1170,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27360</t>
+          <t>72148</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1200,44 +1180,44 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Add1</t>
+          <t>Sema4a</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11518</t>
+          <t>20351</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1252,7 +1232,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11518</t>
+          <t>20351</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1262,44 +1242,44 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lsp1</t>
+          <t>S1pr4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16985</t>
+          <t>13611</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1314,7 +1294,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>16985</t>
+          <t>13611</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1324,44 +1304,44 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Myo1f</t>
+          <t>Selplg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17916</t>
+          <t>20345</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1376,7 +1356,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>17916</t>
+          <t>20345</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1386,44 +1366,44 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rasa3</t>
+          <t>Kcnab2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>19414</t>
+          <t>16498</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1438,7 +1418,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19414</t>
+          <t>16498</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1448,44 +1428,44 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Glipr2</t>
+          <t>Rasgrp2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>384009</t>
+          <t>19395</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1500,7 +1480,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>384009</t>
+          <t>19395</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1510,44 +1490,44 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S1pr1</t>
+          <t>Dnajc15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13609</t>
+          <t>66148</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1562,7 +1542,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>13609</t>
+          <t>66148</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1572,44 +1552,44 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Usp28</t>
+          <t>Cdc25b</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>235323</t>
+          <t>12531</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1624,7 +1604,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>235323</t>
+          <t>12531</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1634,44 +1614,44 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C230096K16Rik</t>
+          <t>Myo1f</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>414098</t>
+          <t>17916</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1686,7 +1666,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>414098</t>
+          <t>17916</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1696,44 +1676,44 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Stk38</t>
+          <t>Emp3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>106504</t>
+          <t>13732</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1748,7 +1728,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>106504</t>
+          <t>13732</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1758,44 +1738,44 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dnah8</t>
+          <t>Rasa3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13417</t>
+          <t>19414</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1810,7 +1790,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13417</t>
+          <t>19414</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1820,44 +1800,44 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ripor2</t>
+          <t>Glipr2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>193385</t>
+          <t>384009</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1872,7 +1852,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>193385</t>
+          <t>384009</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1882,44 +1862,44 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Klhl6</t>
+          <t>Lsp1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>239743</t>
+          <t>16985</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1934,7 +1914,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>239743</t>
+          <t>16985</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1944,44 +1924,44 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Atp1b3</t>
+          <t>Ccl5</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>11933</t>
+          <t>20304</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1996,7 +1976,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11933</t>
+          <t>20304</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2006,44 +1986,44 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ccl5</t>
+          <t>A930005H10Rik</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>20304</t>
+          <t>68161</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2058,7 +2038,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20304</t>
+          <t>68161</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2068,44 +2048,44 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Als2cl</t>
+          <t>Ctsw</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>235633</t>
+          <t>13041</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2120,7 +2100,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>235633</t>
+          <t>13041</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2130,32 +2110,32 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -2192,32 +2172,32 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -2254,32 +2234,32 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -2316,32 +2296,32 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -2378,44 +2358,44 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trat1</t>
+          <t>Als2cl</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>77647</t>
+          <t>235633</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2430,7 +2410,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>77647</t>
+          <t>235633</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2440,49 +2420,49 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fam69a</t>
+          <t>Ly6c1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>67266</t>
+          <t>17067</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gene_synonym</t>
+          <t>symbol</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2492,7 +2472,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>67266</t>
+          <t>17067</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2502,44 +2482,44 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Golm1</t>
+          <t>Cmpk2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>105348</t>
+          <t>22169</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2554,7 +2534,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>105348</t>
+          <t>22169</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2564,44 +2544,44 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Selplg</t>
+          <t>Gm11346</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>20345</t>
+          <t>76024</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2616,7 +2596,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>20345</t>
+          <t>76024</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2626,44 +2606,44 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Emp3</t>
+          <t>Galnt10</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>13732</t>
+          <t>171212</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2678,7 +2658,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13732</t>
+          <t>171212</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2688,44 +2668,44 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Rasgrp2</t>
+          <t>Stk38</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>19395</t>
+          <t>106504</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2740,7 +2720,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>19395</t>
+          <t>106504</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2750,44 +2730,44 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cdc25b</t>
+          <t>Usp28</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>12531</t>
+          <t>235323</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2802,7 +2782,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12531</t>
+          <t>235323</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2812,44 +2792,44 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S1pr4</t>
+          <t>C230096K16Rik</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>13611</t>
+          <t>414098</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2864,7 +2844,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13611</t>
+          <t>414098</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2874,44 +2854,44 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Kcnab2</t>
+          <t>Dnah8</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16498</t>
+          <t>13417</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2926,7 +2906,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>16498</t>
+          <t>13417</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2936,44 +2916,44 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ccr7</t>
+          <t>Ripor2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12775</t>
+          <t>193385</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2988,7 +2968,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12775</t>
+          <t>193385</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2998,44 +2978,44 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S100a4</t>
+          <t>Add3</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>20198</t>
+          <t>27360</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3050,7 +3030,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>20198</t>
+          <t>27360</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3060,44 +3040,44 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Trib2</t>
+          <t>Add1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>217410</t>
+          <t>11518</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3112,7 +3092,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>217410</t>
+          <t>11518</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3122,44 +3102,44 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Prg4</t>
+          <t>Gm45552</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>96875</t>
+          <t>118567527</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3174,7 +3154,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>96875</t>
+          <t>118567527</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3184,44 +3164,44 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Klf2</t>
+          <t>Arhgef18</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16598</t>
+          <t>102098</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3236,7 +3216,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>16598</t>
+          <t>102098</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3246,49 +3226,49 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Tdrp</t>
+          <t>A430078G23Rik</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>72148</t>
+          <t>102098</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>symbol</t>
+          <t>gene_synonym</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3298,7 +3278,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>72148</t>
+          <t>102098</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3308,44 +3288,44 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Cd55</t>
+          <t>Klhl6</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>13136</t>
+          <t>239743</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3360,7 +3340,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13136</t>
+          <t>239743</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3370,44 +3350,44 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Igfbp4</t>
+          <t>Atp1b3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16010</t>
+          <t>11933</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3422,7 +3402,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>16010</t>
+          <t>11933</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3432,42 +3412,228 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Spice1</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>212514</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>M. musculus</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>212514</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>M. musculus</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Trat1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>77647</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>M. musculus</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>77647</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>M. musculus</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Fam69a</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>67266</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>gene_synonym</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>M. musculus</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>67266</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>M. musculus</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>0.0</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E47">
+  <conditionalFormatting sqref="E2:E50">
     <cfRule type="expression" priority="1" dxfId="0">
       <formula>1=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G47">
+  <conditionalFormatting sqref="G2:G50">
     <cfRule type="cellIs" priority="2" operator="equal" dxfId="1" stopIfTrue="0">
       <formula>1</formula>
     </cfRule>
@@ -3478,7 +3644,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H47">
+  <conditionalFormatting sqref="H2:H50">
     <cfRule type="cellIs" priority="5" operator="equal" dxfId="1" stopIfTrue="0">
       <formula>1</formula>
     </cfRule>
@@ -3489,7 +3655,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I47">
+  <conditionalFormatting sqref="I2:I50">
     <cfRule type="cellIs" priority="8" operator="equal" dxfId="1" stopIfTrue="0">
       <formula>1</formula>
     </cfRule>
@@ -3500,7 +3666,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J47">
+  <conditionalFormatting sqref="J2:J50">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="1" stopIfTrue="0">
       <formula>1</formula>
     </cfRule>
@@ -3511,7 +3677,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K47">
+  <conditionalFormatting sqref="K2:K50">
     <cfRule type="cellIs" priority="14" operator="equal" dxfId="1" stopIfTrue="0">
       <formula>1</formula>
     </cfRule>
@@ -3522,7 +3688,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L47">
+  <conditionalFormatting sqref="L2:L50">
     <cfRule type="cellIs" priority="17" operator="equal" dxfId="1" stopIfTrue="0">
       <formula>1</formula>
     </cfRule>
@@ -3545,7 +3711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3608,38 +3774,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Reactome Gene Sets</t>
+          <t>GO Biological Processes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R-MMU-373076</t>
+          <t>GO:0042119</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Class A/1 (Rhodopsin-like receptors)</t>
+          <t>neutrophil activation</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-5.4720598118</v>
+        <v>-4.7255699539</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>-1.2080215858</v>
+        <v>-0.4773268708</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5/48</t>
+          <t>3/11</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12775,13609,13611,14063,20304,193385,19395,19414,17916,102098,13417,13732,20345,384009,16985,11933,13136,16010,106504</t>
+          <t>14063,17916,20304,13609,20351,193385,13611,384009,19395,19414,16985,20345,102098,11933,13136</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,S1pr4,F2rl1,Ccl5,Ripor2,Rasgrp2,Rasa3,Myo1f,Arhgef18,Dnah8,Emp3,Selplg,Glipr2,Lsp1,Atp1b3,Cd55,Igfbp4,Stk38</t>
+          <t>F2rl1,Myo1f,Ccl5,S1pr1,Sema4a,Ripor2,S1pr4,Glipr2,Rasgrp2,Rasa3,Lsp1,Selplg,Arhgef18,Atp1b3,Cd55</t>
         </is>
       </c>
     </row>
@@ -3651,38 +3817,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reactome Gene Sets</t>
+          <t>GO Biological Processes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R-MMU-373076</t>
+          <t>GO:0042119</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Class A/1 (Rhodopsin-like receptors)</t>
+          <t>neutrophil activation</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-5.4720598118</v>
+        <v>-4.7255699539</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>-1.2080215858</v>
+        <v>-0.4773268708</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5/48</t>
+          <t>3/11</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12775,13609,13611,14063,20304</t>
+          <t>14063,17916,20304</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,S1pr4,F2rl1,Ccl5</t>
+          <t>F2rl1,Myo1f,Ccl5</t>
         </is>
       </c>
     </row>
@@ -3694,38 +3860,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Reactome Gene Sets</t>
+          <t>GO Biological Processes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R-MMU-500792</t>
+          <t>GO:0036230</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GPCR ligand binding</t>
+          <t>granulocyte activation</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-4.9871949862</v>
+        <v>-4.3865003493</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>-1.1297638341</v>
+        <v>-0.4392872619</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5/60</t>
+          <t>3/14</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>12775,13609,13611,14063,20304</t>
+          <t>14063,17916,20304</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,S1pr4,F2rl1,Ccl5</t>
+          <t>F2rl1,Myo1f,Ccl5</t>
         </is>
       </c>
     </row>
@@ -3742,33 +3908,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GO:0050921</t>
+          <t>GO:0050920</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>positive regulation of chemotaxis</t>
+          <t>regulation of chemotaxis</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-4.9166808054</v>
+        <v>-4.1706404706</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>-1.1297638341</v>
+        <v>-0.3995186423</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5/62</t>
+          <t>5/87</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12775,13609,14063,20304,193385</t>
+          <t>13609,14063,20304,20351,193385</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,F2rl1,Ccl5,Ripor2</t>
+          <t>S1pr1,F2rl1,Ccl5,Sema4a,Ripor2</t>
         </is>
       </c>
     </row>
@@ -3780,38 +3946,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GO Biological Processes</t>
+          <t>Reactome Gene Sets</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GO:0043087</t>
+          <t>R-MMU-373076</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>regulation of GTPase activity</t>
+          <t>Class A/1 (Rhodopsin-like receptors)</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-4.4330148109</v>
+        <v>-4.0435011177</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>-0.8657145063</v>
+        <v>-0.397318026</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7/192</t>
+          <t>4/48</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12775,13609,14063,19395,19414,20304,193385</t>
+          <t>13609,13611,14063,20304</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,F2rl1,Rasgrp2,Rasa3,Ccl5,Ripor2</t>
+          <t>S1pr1,S1pr4,F2rl1,Ccl5</t>
         </is>
       </c>
     </row>
@@ -3823,38 +3989,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GO Biological Processes</t>
+          <t>Reactome Gene Sets</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GO:0002690</t>
+          <t>R-MMU-500792</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>positive regulation of leukocyte chemotaxis</t>
+          <t>GPCR ligand binding</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-4.2973403557</v>
+        <v>-3.6633741774</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>-0.8657145063</v>
+        <v>-0.189087853</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4/42</t>
+          <t>4/60</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12775,14063,20304,193385</t>
+          <t>13609,13611,14063,20304</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Ccr7,F2rl1,Ccl5,Ripor2</t>
+          <t>S1pr1,S1pr4,F2rl1,Ccl5</t>
         </is>
       </c>
     </row>
@@ -3866,38 +4032,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WikiPathways</t>
+          <t>GO Biological Processes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>WP1396</t>
+          <t>GO:0050921</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GPCRs, non-odorant</t>
+          <t>positive regulation of chemotaxis</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-4.2564858818</v>
+        <v>-3.6080991532</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>-0.8657145063</v>
+        <v>-0.189087853</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4/43</t>
+          <t>4/62</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>12775,13609,13611,14063</t>
+          <t>13609,14063,20304,193385</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,S1pr4,F2rl1</t>
+          <t>S1pr1,F2rl1,Ccl5,Ripor2</t>
         </is>
       </c>
     </row>
@@ -3914,33 +4080,33 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GO:0042119</t>
+          <t>GO:0030335</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>neutrophil activation</t>
+          <t>positive regulation of cell migration</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-4.2197562576</v>
+        <v>-3.4673167777</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>-0.8657145063</v>
+        <v>-0.189087853</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3/16</t>
+          <t>7/270</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14063,17916,20304</t>
+          <t>13609,14063,17916,20304,20351,193385,384009</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>F2rl1,Myo1f,Ccl5</t>
+          <t>S1pr1,F2rl1,Myo1f,Ccl5,Sema4a,Ripor2,Glipr2</t>
         </is>
       </c>
     </row>
@@ -3957,33 +4123,33 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GO:0072678</t>
+          <t>GO:2000147</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>T cell migration</t>
+          <t>positive regulation of cell motility</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-4.1777630426</v>
+        <v>-3.4189285299</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>-0.8657145063</v>
+        <v>-0.189087853</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4/45</t>
+          <t>7/275</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>12775,13609,20304,193385</t>
+          <t>13609,14063,17916,20304,20351,193385,384009</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,Ccl5,Ripor2</t>
+          <t>S1pr1,F2rl1,Myo1f,Ccl5,Sema4a,Ripor2,Glipr2</t>
         </is>
       </c>
     </row>
@@ -4000,33 +4166,33 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GO:0050920</t>
+          <t>GO:0040017</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>regulation of chemotaxis</t>
+          <t>positive regulation of locomotion</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-4.1755102229</v>
+        <v>-3.3715692968</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>-0.8657145063</v>
+        <v>-0.189087853</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5/88</t>
+          <t>7/280</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12775,13609,14063,20304,193385</t>
+          <t>13609,14063,17916,20304,20351,193385,384009</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,F2rl1,Ccl5,Ripor2</t>
+          <t>S1pr1,F2rl1,Myo1f,Ccl5,Sema4a,Ripor2,Glipr2</t>
         </is>
       </c>
     </row>
@@ -4043,33 +4209,33 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GO:0030595</t>
+          <t>GO:0051272</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>leukocyte chemotaxis</t>
+          <t>positive regulation of cellular component movement</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-4.0384580876</v>
+        <v>-3.3436322976</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>-0.7744198616</v>
+        <v>-0.189087853</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5/94</t>
+          <t>7/283</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>12775,13609,14063,20304,193385</t>
+          <t>13609,14063,17916,20304,20351,193385,384009</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,F2rl1,Ccl5,Ripor2</t>
+          <t>S1pr1,F2rl1,Myo1f,Ccl5,Sema4a,Ripor2,Glipr2</t>
         </is>
       </c>
     </row>
@@ -4086,33 +4252,33 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GO:0002688</t>
+          <t>GO:0043087</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>regulation of leukocyte chemotaxis</t>
+          <t>regulation of GTPase activity</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-3.8967172747</v>
+        <v>-3.3348119138</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>-0.7214055447</v>
+        <v>-0.189087853</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4/53</t>
+          <t>6/202</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12775,14063,20304,193385</t>
+          <t>13609,14063,19395,19414,20304,193385</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Ccr7,F2rl1,Ccl5,Ripor2</t>
+          <t>S1pr1,F2rl1,Rasgrp2,Rasa3,Ccl5,Ripor2</t>
         </is>
       </c>
     </row>
@@ -4124,38 +4290,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Reactome Gene Sets</t>
+          <t>KEGG Pathway</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>R-MMU-372790</t>
+          <t>mmu04080</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Signaling by GPCR</t>
+          <t>Neuroactive ligand-receptor interaction</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-3.8581472442</v>
+        <v>-3.2793669115</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>-0.7214055447</v>
+        <v>-0.1772518641</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>6/164</t>
+          <t>3/32</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>12775,13609,13611,14063,20304,102098</t>
+          <t>13609,13611,14063</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,S1pr4,F2rl1,Ccl5,Arhgef18</t>
+          <t>S1pr1,S1pr4,F2rl1</t>
         </is>
       </c>
     </row>
@@ -4172,33 +4338,33 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GO:0036230</t>
+          <t>GO:0006935</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>granulocyte activation</t>
+          <t>chemotaxis</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-3.8515547585</v>
+        <v>-3.1199478463</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>-0.7214055447</v>
+        <v>-0.1021536847</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3/21</t>
+          <t>5/146</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>14063,17916,20304</t>
+          <t>13609,16985,20304,20351,193385</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>F2rl1,Myo1f,Ccl5</t>
+          <t>S1pr1,Lsp1,Ccl5,Sema4a,Ripor2</t>
         </is>
       </c>
     </row>
@@ -4215,33 +4381,33 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GO:0120031</t>
+          <t>GO:0042330</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>plasma membrane bounded cell projection assembly</t>
+          <t>taxis</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-3.831708163</v>
+        <v>-3.0799580224</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>-0.7214055447</v>
+        <v>-0.1017129702</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>7/239</t>
+          <t>5/149</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>12775,13417,13609,13732,14063,20304,193385</t>
+          <t>13609,16985,20304,20351,193385</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Ccr7,Dnah8,S1pr1,Emp3,F2rl1,Ccl5,Ripor2</t>
+          <t>S1pr1,Lsp1,Ccl5,Sema4a,Ripor2</t>
         </is>
       </c>
     </row>
@@ -4258,33 +4424,33 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GO:0050900</t>
+          <t>GO:0002690</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>leukocyte migration</t>
+          <t>positive regulation of leukocyte chemotaxis</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-3.8006991537</v>
+        <v>-2.9300134821</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>-0.7214055447</v>
+        <v>-0.0596211878</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6/168</t>
+          <t>3/42</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>12775,13609,14063,20304,20345,193385</t>
+          <t>14063,20304,193385</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,F2rl1,Ccl5,Selplg,Ripor2</t>
+          <t>F2rl1,Ccl5,Ripor2</t>
         </is>
       </c>
     </row>
@@ -4301,33 +4467,33 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GO:0030031</t>
+          <t>GO:0050900</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>cell projection assembly</t>
+          <t>leukocyte migration</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-3.7648243671</v>
+        <v>-2.9206291873</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>-0.7214055447</v>
+        <v>-0.0596211878</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7/245</t>
+          <t>4/94</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>12775,13417,13609,13732,14063,20304,193385</t>
+          <t>13609,14063,20304,20345</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Ccr7,Dnah8,S1pr1,Emp3,F2rl1,Ccl5,Ripor2</t>
+          <t>S1pr1,F2rl1,Ccl5,Selplg</t>
         </is>
       </c>
     </row>
@@ -4339,38 +4505,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GO Biological Processes</t>
+          <t>WikiPathways</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GO:0072676</t>
+          <t>WP1396</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>lymphocyte migration</t>
+          <t>GPCRs, non-odorant</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-3.7434245382</v>
+        <v>-2.9001144806</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>-0.7214055447</v>
+        <v>-0.0596211878</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4/58</t>
+          <t>3/43</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>12775,13609,20304,193385</t>
+          <t>13609,13611,14063</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,Ccl5,Ripor2</t>
+          <t>S1pr1,S1pr4,F2rl1</t>
         </is>
       </c>
     </row>
@@ -4382,38 +4548,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GO Biological Processes</t>
+          <t>Reactome Gene Sets</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GO:0071622</t>
+          <t>R-MMU-372790</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>regulation of granulocyte chemotaxis</t>
+          <t>Signaling by GPCR</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-3.7301712656</v>
+        <v>-2.8928909229</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>-0.7214055447</v>
+        <v>-0.0596211878</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3/23</t>
+          <t>5/164</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>12775,20304,193385</t>
+          <t>13609,13611,14063,20304,102098</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Ccr7,Ccl5,Ripor2</t>
+          <t>S1pr1,S1pr4,F2rl1,Ccl5,Arhgef18</t>
         </is>
       </c>
     </row>
@@ -4430,33 +4596,33 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GO:0030335</t>
+          <t>GO:0002688</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>positive regulation of cell migration</t>
+          <t>regulation of leukocyte chemotaxis</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-3.5151453759</v>
+        <v>-2.6606476505</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>-0.5825816824</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7/269</t>
+          <t>3/52</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>12775,13609,14063,17916,20304,193385,384009</t>
+          <t>14063,20304,193385</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,F2rl1,Myo1f,Ccl5,Ripor2,Glipr2</t>
+          <t>F2rl1,Ccl5,Ripor2</t>
         </is>
       </c>
     </row>
@@ -4473,33 +4639,33 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GO:0060326</t>
+          <t>GO:0006875</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>cell chemotaxis</t>
+          <t>cellular metal ion homeostasis</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-3.4889422296</v>
+        <v>-2.304338047</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>-0.5825816824</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>5/123</t>
+          <t>5/224</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>12775,13609,14063,20304,193385</t>
+          <t>11933,13136,13609,14063,20304</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,F2rl1,Ccl5,Ripor2</t>
+          <t>Atp1b3,Cd55,S1pr1,F2rl1,Ccl5</t>
         </is>
       </c>
     </row>
@@ -4511,38 +4677,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Reactome Gene Sets</t>
+          <t>GO Biological Processes</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>R-MMU-375276</t>
+          <t>GO:0002687</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Peptide ligand-binding receptors</t>
+          <t>positive regulation of leukocyte migration</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-3.4705009267</v>
+        <v>-2.2596029827</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>-0.5825816824</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3/28</t>
+          <t>3/72</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>12775,14063,20304</t>
+          <t>14063,20304,193385</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Ccr7,F2rl1,Ccl5</t>
+          <t>F2rl1,Ccl5,Ripor2</t>
         </is>
       </c>
     </row>
@@ -4554,38 +4720,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KEGG Pathway</t>
+          <t>GO Biological Processes</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ko04080</t>
+          <t>GO:0002274</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Neuroactive ligand-receptor interaction</t>
+          <t>myeloid leukocyte activation</t>
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-3.4705009267</v>
+        <v>-2.2428807555</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>-0.5825816824</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3/28</t>
+          <t>3/73</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>13609,13611,14063</t>
+          <t>14063,17916,20304</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>S1pr1,S1pr4,F2rl1</t>
+          <t>F2rl1,Myo1f,Ccl5</t>
         </is>
       </c>
     </row>
@@ -4602,33 +4768,33 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GO:2000147</t>
+          <t>GO:0043547</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>positive regulation of cell motility</t>
+          <t>positive regulation of GTPase activity</t>
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-3.4664086667</v>
+        <v>-2.1960546959</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>-0.5825816824</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>7/274</t>
+          <t>4/149</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>12775,13609,14063,17916,20304,193385,384009</t>
+          <t>13609,14063,19395,20304</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,F2rl1,Myo1f,Ccl5,Ripor2,Glipr2</t>
+          <t>S1pr1,F2rl1,Rasgrp2,Ccl5</t>
         </is>
       </c>
     </row>
@@ -4645,33 +4811,33 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GO:0040017</t>
+          <t>GO:0070374</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>positive regulation of locomotion</t>
+          <t>positive regulation of ERK1 and ERK2 cascade</t>
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-3.4187086664</v>
+        <v>-2.1029182765</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>-0.5635243801000001</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>7/279</t>
+          <t>3/82</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>12775,13609,14063,17916,20304,193385,384009</t>
+          <t>14063,20304,384009</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,F2rl1,Myo1f,Ccl5,Ripor2,Glipr2</t>
+          <t>F2rl1,Ccl5,Glipr2</t>
         </is>
       </c>
     </row>
@@ -4683,38 +4849,38 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GO Biological Processes</t>
+          <t>Reactome Gene Sets</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GO:0051272</t>
+          <t>R-MMU-388396</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>positive regulation of cellular component movement</t>
+          <t>GPCR downstream signalling</t>
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-3.3905707307</v>
+        <v>-2.09771164</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>-0.5635243801000001</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>7/282</t>
+          <t>4/159</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>12775,13609,14063,17916,20304,193385,384009</t>
+          <t>13611,14063,20304,102098</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,F2rl1,Myo1f,Ccl5,Ripor2,Glipr2</t>
+          <t>S1pr4,F2rl1,Ccl5,Arhgef18</t>
         </is>
       </c>
     </row>
@@ -4731,33 +4897,33 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GO:0006935</t>
+          <t>GO:0055065</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>chemotaxis</t>
+          <t>metal ion homeostasis</t>
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-3.3905542717</v>
+        <v>-2.0839114309</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>-0.5635243801000001</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6/200</t>
+          <t>5/253</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>12775,13609,14063,16985,20304,193385</t>
+          <t>11933,13136,13609,14063,20304</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,F2rl1,Lsp1,Ccl5,Ripor2</t>
+          <t>Atp1b3,Cd55,S1pr1,F2rl1,Ccl5</t>
         </is>
       </c>
     </row>
@@ -4774,33 +4940,33 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GO:0002687</t>
+          <t>GO:0030003</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>positive regulation of leukocyte migration</t>
+          <t>cellular cation homeostasis</t>
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-3.3804045747</v>
+        <v>-2.0628861316</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>-0.5635243801000001</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4/72</t>
+          <t>5/256</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>12775,14063,20304,193385</t>
+          <t>11933,13136,13609,14063,20304</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Ccr7,F2rl1,Ccl5,Ripor2</t>
+          <t>Atp1b3,Cd55,S1pr1,F2rl1,Ccl5</t>
         </is>
       </c>
     </row>
@@ -4817,33 +4983,33 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GO:0042330</t>
+          <t>GO:0006873</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>taxis</t>
+          <t>cellular ion homeostasis</t>
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-3.3560046225</v>
+        <v>-2.0353217081</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>-0.5577016965</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>6/203</t>
+          <t>5/260</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>12775,13609,14063,16985,20304,193385</t>
+          <t>11933,13136,13609,14063,20304</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,F2rl1,Lsp1,Ccl5,Ripor2</t>
+          <t>Atp1b3,Cd55,S1pr1,F2rl1,Ccl5</t>
         </is>
       </c>
     </row>
@@ -4855,45 +5021,45 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>KEGG Pathway</t>
+          <t>GO Biological Processes</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>mmu04080</t>
+          <t>GO:0006874</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Neuroactive ligand-receptor interaction</t>
+          <t>cellular calcium ion homeostasis</t>
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-3.2564203025</v>
+        <v>-2.0152171574</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>-0.4988508549</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3/33</t>
+          <t>4/168</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>13609,13611,14063</t>
+          <t>13136,13609,14063,20304</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>S1pr1,S1pr4,F2rl1</t>
+          <t>Cd55,S1pr1,F2rl1,Ccl5</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>2_Summary</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4903,40 +5069,40 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GO:0043547</t>
+          <t>GO:0032956</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>positive regulation of GTPase activity</t>
+          <t>regulation of actin cytoskeleton organization</t>
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-3.244375141</v>
+        <v>-3.4772102931</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>-0.4988508549</v>
+        <v>-0.189087853</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>5/139</t>
+          <t>6/190</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>12775,13609,14063,19395,20304</t>
+          <t>11518,13609,14063,17916,27360,102098,193385,16598,20351,66148</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,F2rl1,Rasgrp2,Ccl5</t>
+          <t>Add1,S1pr1,F2rl1,Myo1f,Add3,Arhgef18,Ripor2,Klf2,Sema4a,Dnajc15</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>2_Member</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4946,40 +5112,40 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GO:2000404</t>
+          <t>GO:0032956</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>regulation of T cell migration</t>
+          <t>regulation of actin cytoskeleton organization</t>
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-3.2177924258</v>
+        <v>-3.4772102931</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>-0.4852331168</v>
+        <v>-0.189087853</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3/34</t>
+          <t>6/190</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>12775,20304,193385</t>
+          <t>11518,13609,14063,17916,27360,102098</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Ccr7,Ccl5,Ripor2</t>
+          <t>Add1,S1pr1,F2rl1,Myo1f,Add3,Arhgef18</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>2_Member</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4989,40 +5155,40 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GO:0030593</t>
+          <t>GO:0032970</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>neutrophil chemotaxis</t>
+          <t>regulation of actin filament-based process</t>
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-3.1440638663</v>
+        <v>-3.3233875837</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>-0.436328141</v>
+        <v>-0.189087853</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3/36</t>
+          <t>6/203</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>12775,20304,193385</t>
+          <t>11518,13609,14063,17916,27360,102098</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Ccr7,Ccl5,Ripor2</t>
+          <t>Add1,S1pr1,F2rl1,Myo1f,Add3,Arhgef18</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>2_Member</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5032,40 +5198,40 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GO:0045123</t>
+          <t>GO:0030834</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>cellular extravasation</t>
+          <t>regulation of actin filament depolymerization</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-3.1088297793</v>
+        <v>-3.2394858925</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>-0.4245751499</v>
+        <v>-0.1673340685</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3/37</t>
+          <t>3/33</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>20304,20345,193385</t>
+          <t>11518,14063,27360</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Ccl5,Selplg,Ripor2</t>
+          <t>Add1,F2rl1,Add3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>2_Member</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5075,40 +5241,40 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GO:0071674</t>
+          <t>GO:0051493</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>mononuclear cell migration</t>
+          <t>regulation of cytoskeleton organization</t>
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-3.0497609327</v>
+        <v>-3.2090467502</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>-0.3767873138</v>
+        <v>-0.1649236498</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4/88</t>
+          <t>7/298</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>12775,13609,20304,193385</t>
+          <t>11518,13609,14063,17916,27360,102098,193385</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,Ccl5,Ripor2</t>
+          <t>Add1,S1pr1,F2rl1,Myo1f,Add3,Arhgef18,Ripor2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>2_Member</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5118,83 +5284,83 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GO:0006875</t>
+          <t>GO:0051494</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>cellular metal ion homeostasis</t>
+          <t>negative regulation of cytoskeleton organization</t>
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-2.9919999965</v>
+        <v>-3.0463709259</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>-0.3761659785</v>
+        <v>-0.1017129702</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>6/238</t>
+          <t>4/87</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>11933,12775,13136,13609,14063,20304</t>
+          <t>11518,13609,27360,102098</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Atp1b3,Ccr7,Cd55,S1pr1,F2rl1,Ccl5</t>
+          <t>Add1,S1pr1,Add3,Arhgef18</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>2_Member</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Reactome Gene Sets</t>
+          <t>GO Biological Processes</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>R-MMU-388396</t>
+          <t>GO:0110053</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>GPCR downstream signalling</t>
+          <t>regulation of actin filament organization</t>
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-2.9798713003</v>
+        <v>-3.0280391239</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>-0.3761659785</v>
+        <v>-0.1017129702</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5/159</t>
+          <t>5/153</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>12775,13611,14063,20304,102098</t>
+          <t>11518,13609,14063,27360,102098</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr4,F2rl1,Ccl5,Arhgef18</t>
+          <t>Add1,S1pr1,F2rl1,Add3,Arhgef18</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>2_Member</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5204,40 +5370,40 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GO:2000401</t>
+          <t>GO:1902904</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>regulation of lymphocyte migration</t>
+          <t>negative regulation of supramolecular fiber organization</t>
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-2.9774463728</v>
+        <v>-3.0277367585</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>-0.3761659785</v>
+        <v>-0.1017129702</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3/41</t>
+          <t>4/88</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>12775,20304,193385</t>
+          <t>11518,13609,27360,102098</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Ccr7,Ccl5,Ripor2</t>
+          <t>Add1,S1pr1,Add3,Arhgef18</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>2_Member</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5247,40 +5413,40 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GO:0071621</t>
+          <t>GO:0035150</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>granulocyte chemotaxis</t>
+          <t>regulation of tube size</t>
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-2.8042094462</v>
+        <v>-2.709768741</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>-0.2477413963</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3/47</t>
+          <t>3/50</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>12775,20304,193385</t>
+          <t>14063,16598,27360</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Ccr7,Ccl5,Ripor2</t>
+          <t>F2rl1,Klf2,Add3</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>2_Member</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5290,40 +5456,40 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GO:1990266</t>
+          <t>GO:0035296</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>neutrophil migration</t>
+          <t>regulation of tube diameter</t>
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-2.7776671136</v>
+        <v>-2.709768741</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>-0.2296322313</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3/48</t>
+          <t>3/50</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>12775,20304,193385</t>
+          <t>14063,16598,27360</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Ccr7,Ccl5,Ripor2</t>
+          <t>F2rl1,Klf2,Add3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>2_Member</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5333,40 +5499,40 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GO:0006874</t>
+          <t>GO:0097746</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>cellular calcium ion homeostasis</t>
+          <t>blood vessel diameter maintenance</t>
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-2.7296334341</v>
+        <v>-2.709768741</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>-0.2245070473</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>5/181</t>
+          <t>3/50</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>12775,13136,13609,14063,20304</t>
+          <t>14063,16598,27360</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Ccr7,Cd55,S1pr1,F2rl1,Ccl5</t>
+          <t>F2rl1,Klf2,Add3</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>2_Member</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5376,40 +5542,40 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GO:0055065</t>
+          <t>GO:1901879</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>metal ion homeostasis</t>
+          <t>regulation of protein depolymerization</t>
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-2.7187320948</v>
+        <v>-2.709768741</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>-0.2245070473</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>6/269</t>
+          <t>3/50</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>11933,12775,13136,13609,14063,20304</t>
+          <t>11518,14063,27360</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Atp1b3,Ccr7,Cd55,S1pr1,F2rl1,Ccl5</t>
+          <t>Add1,F2rl1,Add3</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>2_Member</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5419,40 +5585,40 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GO:0030003</t>
+          <t>GO:1902903</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>cellular cation homeostasis</t>
+          <t>regulation of supramolecular fiber organization</t>
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>-2.7105527071</v>
+        <v>-2.4058881917</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>-0.2245070473</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>6/270</t>
+          <t>5/212</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>11933,12775,13136,13609,14063,20304</t>
+          <t>11518,13609,14063,27360,102098</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Atp1b3,Ccr7,Cd55,S1pr1,F2rl1,Ccl5</t>
+          <t>Add1,S1pr1,F2rl1,Add3,Arhgef18</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>2_Member</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5462,40 +5628,40 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GO:0002685</t>
+          <t>GO:0003018</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>regulation of leukocyte migration</t>
+          <t>vascular process in circulatory system</t>
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>-2.7045715319</v>
+        <v>-2.2428807555</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>-0.2245070473</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>4/109</t>
+          <t>3/73</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>12775,14063,20304,193385</t>
+          <t>14063,16598,27360</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Ccr7,F2rl1,Ccl5,Ripor2</t>
+          <t>F2rl1,Klf2,Add3</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>2_Member</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5505,40 +5671,40 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GO:0042129</t>
+          <t>GO:0090066</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>regulation of T cell proliferation</t>
+          <t>regulation of anatomical structure size</t>
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>-2.7045715319</v>
+        <v>-2.1938400725</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>-0.2245070473</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>4/109</t>
+          <t>5/238</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>12775,13136,20304,193385</t>
+          <t>11518,14063,16598,20351,27360</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Ccr7,Cd55,Ccl5,Ripor2</t>
+          <t>Add1,F2rl1,Klf2,Sema4a,Add3</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>2_Member</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5548,40 +5714,40 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GO:0055074</t>
+          <t>GO:0043244</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>calcium ion homeostasis</t>
+          <t>regulation of protein-containing complex disassembly</t>
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>-2.6879204186</v>
+        <v>-2.1029182765</v>
       </c>
       <c r="F47" s="3" t="n">
-        <v>-0.2245070473</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>5/185</t>
+          <t>3/82</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>12775,13136,13609,14063,20304</t>
+          <t>11518,14063,27360</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Ccr7,Cd55,S1pr1,F2rl1,Ccl5</t>
+          <t>Add1,F2rl1,Add3</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>2_Member</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5591,126 +5757,126 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GO:0006873</t>
+          <t>GO:0031333</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>cellular ion homeostasis</t>
+          <t>negative regulation of protein-containing complex assembly</t>
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>-2.6781968292</v>
+        <v>-2.0323691766</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>-0.2245070473</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>6/274</t>
+          <t>3/87</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>11933,12775,13136,13609,14063,20304</t>
+          <t>11518,27360,66148</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Atp1b3,Ccr7,Cd55,S1pr1,F2rl1,Ccl5</t>
+          <t>Add1,Add3,Dnajc15</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>3_Summary</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GO Biological Processes</t>
+          <t>KEGG Pathway</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GO:0070661</t>
+          <t>mmu04068</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>leukocyte proliferation</t>
+          <t>FoxO signaling pathway</t>
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>-2.5977924318</v>
+        <v>-2.9206291873</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>-0.160678748</v>
+        <v>-0.0596211878</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>5/194</t>
+          <t>4/94</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>12775,13136,14063,20304,193385</t>
+          <t>12581,13609,13611,16598,12531</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Ccr7,Cd55,F2rl1,Ccl5,Ripor2</t>
+          <t>Cdkn2d,S1pr1,S1pr4,Klf2,Cdc25b</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>3_Member</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GO Biological Processes</t>
+          <t>KEGG Pathway</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GO:0072503</t>
+          <t>mmu04068</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>cellular divalent inorganic cation homeostasis</t>
+          <t>FoxO signaling pathway</t>
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>-2.5977924318</v>
+        <v>-2.9206291873</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>-0.160678748</v>
+        <v>-0.0596211878</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>5/194</t>
+          <t>4/94</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>12775,13136,13609,14063,20304</t>
+          <t>12581,13609,13611,16598</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Ccr7,Cd55,S1pr1,F2rl1,Ccl5</t>
+          <t>Cdkn2d,S1pr1,S1pr4,Klf2</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>3_Member</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5720,40 +5886,40 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GO:0007204</t>
+          <t>GO:0071695</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>positive regulation of cytosolic calcium ion concentration</t>
+          <t>anatomical structure maturation</t>
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>-2.5922080613</v>
+        <v>-2.0600307562</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>-0.160678748</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>4/117</t>
+          <t>3/85</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>12775,13136,13609,14063</t>
+          <t>12531,13609,16598</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Ccr7,Cd55,S1pr1,F2rl1</t>
+          <t>Cdc25b,S1pr1,Klf2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>4_Summary</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5763,40 +5929,40 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GO:0072507</t>
+          <t>GO:0035023</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>divalent inorganic cation homeostasis</t>
+          <t>regulation of Rho protein signal transduction</t>
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>-2.5217005491</v>
+        <v>-2.8147201117</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>-0.0965114138</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>5/202</t>
+          <t>3/46</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>12775,13136,13609,14063,20304</t>
+          <t>14063,102098,193385,19414</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Ccr7,Cd55,S1pr1,F2rl1,Ccl5</t>
+          <t>F2rl1,Arhgef18,Ripor2,Rasa3</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>4_Member</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5806,40 +5972,40 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GO:0097530</t>
+          <t>GO:0035023</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>granulocyte migration</t>
+          <t>regulation of Rho protein signal transduction</t>
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>-2.4991526495</v>
+        <v>-2.8147201117</v>
       </c>
       <c r="F53" s="3" t="n">
-        <v>-0.0812970177</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3/60</t>
+          <t>3/46</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>12775,20304,193385</t>
+          <t>14063,102098,193385</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Ccr7,Ccl5,Ripor2</t>
+          <t>F2rl1,Arhgef18,Ripor2</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>4_Member</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5849,40 +6015,40 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GO:0032103</t>
+          <t>GO:0046578</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>positive regulation of response to external stimulus</t>
+          <t>regulation of Ras protein signal transduction</t>
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>-2.494076895</v>
+        <v>-2.6541532606</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>-0.0812970177</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>5/205</t>
+          <t>4/111</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>12775,13609,14063,20304,193385</t>
+          <t>14063,19414,102098,193385</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Ccr7,S1pr1,F2rl1,Ccl5,Ripor2</t>
+          <t>F2rl1,Rasa3,Arhgef18,Ripor2</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>4_Member</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5892,40 +6058,40 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GO:0042102</t>
+          <t>GO:0051056</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>positive regulation of T cell proliferation</t>
+          <t>regulation of small GTPase mediated signal transduction</t>
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>-2.4787343817</v>
+        <v>-2.4059201307</v>
       </c>
       <c r="F55" s="3" t="n">
-        <v>-0.07801901579999999</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3/61</t>
+          <t>4/130</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>12775,13136,20304</t>
+          <t>14063,19414,102098,193385</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Ccr7,Cd55,Ccl5</t>
+          <t>F2rl1,Rasa3,Arhgef18,Ripor2</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>5_Summary</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5935,40 +6101,40 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GO:0055080</t>
+          <t>GO:0045765</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>cation homeostasis</t>
+          <t>regulation of angiogenesis</t>
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>-2.4666859047</v>
+        <v>-2.5574598771</v>
       </c>
       <c r="F56" s="3" t="n">
-        <v>-0.07439132480000001</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>6/302</t>
+          <t>4/118</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>11933,12775,13136,13609,14063,20304</t>
+          <t>11518,16598,20304,20351,14063,16498,20345,96875</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Atp1b3,Ccr7,Cd55,S1pr1,F2rl1,Ccl5</t>
+          <t>Add1,Klf2,Ccl5,Sema4a,F2rl1,Kcnab2,Selplg,Prg4</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>5_Member</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5978,40 +6144,40 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GO:0051480</t>
+          <t>GO:0045765</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>regulation of cytosolic calcium ion concentration</t>
+          <t>regulation of angiogenesis</t>
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>-2.4633682874</v>
+        <v>-2.5574598771</v>
       </c>
       <c r="F57" s="3" t="n">
-        <v>-0.07439132480000001</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>4/127</t>
+          <t>4/118</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>12775,13136,13609,14063</t>
+          <t>11518,16598,20304,20351</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Ccr7,Cd55,S1pr1,F2rl1</t>
+          <t>Add1,Klf2,Ccl5,Sema4a</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>5_Member</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6021,40 +6187,40 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GO:0071675</t>
+          <t>GO:1901342</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>regulation of mononuclear cell migration</t>
+          <t>regulation of vasculature development</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>-2.4389718927</v>
+        <v>-2.531019183</v>
       </c>
       <c r="F58" s="3" t="n">
-        <v>-0.0608897737</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>3/63</t>
+          <t>4/120</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>12775,20304,193385</t>
+          <t>11518,16598,20304,20351</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Ccr7,Ccl5,Ripor2</t>
+          <t>Add1,Klf2,Ccl5,Sema4a</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>5_Member</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6064,40 +6230,40 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GO:0098771</t>
+          <t>GO:0030097</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>inorganic ion homeostasis</t>
+          <t>hemopoiesis</t>
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>-2.4384372745</v>
+        <v>-2.4762688772</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>-0.0608897737</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6/306</t>
+          <t>7/399</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>11933,12775,13136,13609,14063,20304</t>
+          <t>11518,14063,16498,16598,20345,20351,96875</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Atp1b3,Ccr7,Cd55,S1pr1,F2rl1,Ccl5</t>
+          <t>Add1,F2rl1,Kcnab2,Klf2,Selplg,Sema4a,Prg4</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>5_Member</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6107,40 +6273,40 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GO:0043410</t>
+          <t>GO:0048534</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>positive regulation of MAPK cascade</t>
+          <t>hematopoietic or lymphoid organ development</t>
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>-2.4226943888</v>
+        <v>-2.3081105879</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>-0.0562832541</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>5/213</t>
+          <t>7/428</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>12775,14063,16010,20304,384009</t>
+          <t>11518,14063,16498,16598,20345,20351,96875</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Ccr7,F2rl1,Igfbp4,Ccl5,Glipr2</t>
+          <t>Add1,F2rl1,Kcnab2,Klf2,Selplg,Sema4a,Prg4</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>5_Member</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6150,40 +6316,40 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GO:0051345</t>
+          <t>GO:0032675</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>positive regulation of hydrolase activity</t>
+          <t>regulation of interleukin-6 production</t>
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>-2.4037619607</v>
+        <v>-2.0884303866</v>
       </c>
       <c r="F61" s="3" t="n">
-        <v>-0.0517832656</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>6/311</t>
+          <t>3/83</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>11933,12775,13609,14063,19395,20304</t>
+          <t>14063,16598,96875</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Atp1b3,Ccr7,S1pr1,F2rl1,Rasgrp2,Ccl5</t>
+          <t>F2rl1,Klf2,Prg4</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>6_Summary</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6193,40 +6359,40 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GO:0120034</t>
+          <t>GO:0120031</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>positive regulation of plasma membrane bounded cell projection assembly</t>
+          <t>plasma membrane bounded cell projection assembly</t>
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>-2.3818447776</v>
+        <v>-2.1072158996</v>
       </c>
       <c r="F62" s="3" t="n">
-        <v>-0.0420858376</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>3/66</t>
+          <t>4/158</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>12775,14063,193385</t>
+          <t>13417,13609,13732,20304</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Ccr7,F2rl1,Ripor2</t>
+          <t>Dnah8,S1pr1,Emp3,Ccl5</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>6_Member</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6236,40 +6402,40 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GO:0007159</t>
+          <t>GO:0120031</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>leukocyte cell-cell adhesion</t>
+          <t>plasma membrane bounded cell projection assembly</t>
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>-2.3461092049</v>
+        <v>-2.1072158996</v>
       </c>
       <c r="F63" s="3" t="n">
-        <v>-0.0157788947</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>5/222</t>
+          <t>4/158</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>12775,13136,20304,20345,193385</t>
+          <t>13417,13609,13732,20304</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Ccr7,Cd55,Ccl5,Selplg,Ripor2</t>
+          <t>Dnah8,S1pr1,Emp3,Ccl5</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1_Member</t>
+          <t>6_Member</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6279,2193 +6445,43 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GO:0042098</t>
+          <t>GO:0030031</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>T cell proliferation</t>
+          <t>cell projection assembly</t>
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>-2.334351233</v>
+        <v>-2.0421240565</v>
       </c>
       <c r="F64" s="3" t="n">
-        <v>-0.009832259600000001</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>4/138</t>
+          <t>4/165</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>12775,13136,20304,193385</t>
+          <t>13417,13609,13732,20304</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Ccr7,Cd55,Ccl5,Ripor2</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>1_Member</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>GO:0050670</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>regulation of lymphocyte proliferation</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="n">
-        <v>-2.3121613521</v>
-      </c>
-      <c r="F65" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>4/140</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>12775,13136,20304,193385</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Ccr7,Cd55,Ccl5,Ripor2</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>1_Member</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>GO:0032944</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>regulation of mononuclear cell proliferation</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="n">
-        <v>-2.2903333854</v>
-      </c>
-      <c r="F66" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>4/142</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>12775,13136,20304,193385</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Ccr7,Cd55,Ccl5,Ripor2</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>1_Member</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Reactome Gene Sets</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>R-MMU-418594</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>G alpha (i) signalling events</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="n">
-        <v>-2.2756833139</v>
-      </c>
-      <c r="F67" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>3/72</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>12775,13611,20304</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Ccr7,S1pr4,Ccl5</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>1_Member</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>GO:0043408</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>regulation of MAPK cascade</t>
-        </is>
-      </c>
-      <c r="E68" s="2" t="n">
-        <v>-2.2527515401</v>
-      </c>
-      <c r="F68" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>6/334</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>12775,14063,16010,20304,106504,384009</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Ccr7,F2rl1,Igfbp4,Ccl5,Stk38,Glipr2</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>1_Member</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>GO:0070663</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>regulation of leukocyte proliferation</t>
-        </is>
-      </c>
-      <c r="E69" s="2" t="n">
-        <v>-2.2372806378</v>
-      </c>
-      <c r="F69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>4/147</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>12775,13136,20304,193385</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Ccr7,Cd55,Ccl5,Ripor2</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>1_Member</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>GO:0070374</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>positive regulation of ERK1 and ERK2 cascade</t>
-        </is>
-      </c>
-      <c r="E70" s="2" t="n">
-        <v>-2.1187822778</v>
-      </c>
-      <c r="F70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>3/82</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>14063,20304,384009</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>F2rl1,Ccl5,Glipr2</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>1_Member</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>GO:0050671</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>positive regulation of lymphocyte proliferation</t>
-        </is>
-      </c>
-      <c r="E71" s="2" t="n">
-        <v>-2.0899569638</v>
-      </c>
-      <c r="F71" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>3/84</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>12775,13136,20304</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Ccr7,Cd55,Ccl5</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>1_Member</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>GO:0032946</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>positive regulation of mononuclear cell proliferation</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="n">
-        <v>-2.0618876726</v>
-      </c>
-      <c r="F72" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>3/86</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>12775,13136,20304</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Ccr7,Cd55,Ccl5</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>1_Member</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>GO:0097529</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>myeloid leukocyte migration</t>
-        </is>
-      </c>
-      <c r="E73" s="2" t="n">
-        <v>-2.0078786631</v>
-      </c>
-      <c r="F73" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>3/90</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>12775,20304,193385</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Ccr7,Ccl5,Ripor2</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2_Summary</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>GO:0032956</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>regulation of actin cytoskeleton organization</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="n">
-        <v>-3.4735424564</v>
-      </c>
-      <c r="F74" s="3" t="n">
-        <v>-0.5825816824</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>6/193</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>11518,13609,14063,17916,27360,102098,193385,12775,16598,20304</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Add1,S1pr1,F2rl1,Myo1f,Add3,Arhgef18,Ripor2,Ccr7,Klf2,Ccl5</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>GO:0032956</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>regulation of actin cytoskeleton organization</t>
-        </is>
-      </c>
-      <c r="E75" s="2" t="n">
-        <v>-3.4735424564</v>
-      </c>
-      <c r="F75" s="3" t="n">
-        <v>-0.5825816824</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>6/193</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>11518,13609,14063,17916,27360,102098</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Add1,S1pr1,F2rl1,Myo1f,Add3,Arhgef18</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>GO:0032970</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>regulation of actin filament-based process</t>
-        </is>
-      </c>
-      <c r="E76" s="2" t="n">
-        <v>-3.3446186678</v>
-      </c>
-      <c r="F76" s="3" t="n">
-        <v>-0.5577016965</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>6/204</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>11518,13609,14063,17916,27360,102098</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Add1,S1pr1,F2rl1,Myo1f,Add3,Arhgef18</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>GO:0051493</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>regulation of cytoskeleton organization</t>
-        </is>
-      </c>
-      <c r="E77" s="2" t="n">
-        <v>-3.246271351</v>
-      </c>
-      <c r="F77" s="3" t="n">
-        <v>-0.4988508549</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>7/298</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>11518,13609,14063,17916,27360,102098,193385</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Add1,S1pr1,F2rl1,Myo1f,Add3,Arhgef18,Ripor2</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>GO:0030834</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>regulation of actin filament depolymerization</t>
-        </is>
-      </c>
-      <c r="E78" s="2" t="n">
-        <v>-3.1803634979</v>
-      </c>
-      <c r="F78" s="3" t="n">
-        <v>-0.4603933162</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>3/35</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>11518,14063,27360</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Add1,F2rl1,Add3</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>GO:0030042</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>actin filament depolymerization</t>
-        </is>
-      </c>
-      <c r="E79" s="2" t="n">
-        <v>-3.1088297793</v>
-      </c>
-      <c r="F79" s="3" t="n">
-        <v>-0.4245751499</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>3/37</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>11518,14063,27360</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Add1,F2rl1,Add3</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>GO:0110053</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>regulation of actin filament organization</t>
-        </is>
-      </c>
-      <c r="E80" s="2" t="n">
-        <v>-3.0045718688</v>
-      </c>
-      <c r="F80" s="3" t="n">
-        <v>-0.3761659785</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>5/157</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>11518,13609,14063,27360,102098</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Add1,S1pr1,F2rl1,Add3,Arhgef18</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>GO:0007015</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>actin filament organization</t>
-        </is>
-      </c>
-      <c r="E81" s="2" t="n">
-        <v>-2.9919999965</v>
-      </c>
-      <c r="F81" s="3" t="n">
-        <v>-0.3761659785</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>6/238</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>11518,13609,14063,17916,27360,102098</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Add1,S1pr1,F2rl1,Myo1f,Add3,Arhgef18</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>GO:0051494</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>negative regulation of cytoskeleton organization</t>
-        </is>
-      </c>
-      <c r="E82" s="2" t="n">
-        <v>-2.9598511627</v>
-      </c>
-      <c r="F82" s="3" t="n">
-        <v>-0.3679107947</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>4/93</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>11518,13609,27360,102098</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Add1,S1pr1,Add3,Arhgef18</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>GO:1902904</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>negative regulation of supramolecular fiber organization</t>
-        </is>
-      </c>
-      <c r="E83" s="2" t="n">
-        <v>-2.9425106522</v>
-      </c>
-      <c r="F83" s="3" t="n">
-        <v>-0.3597136636</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>4/94</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>11518,13609,27360,102098</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Add1,S1pr1,Add3,Arhgef18</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>GO:0030036</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>actin cytoskeleton organization</t>
-        </is>
-      </c>
-      <c r="E84" s="2" t="n">
-        <v>-2.8276396576</v>
-      </c>
-      <c r="F84" s="3" t="n">
-        <v>-0.2625714359</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>7/351</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>11518,12775,13609,14063,17916,27360,102098</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Add1,Ccr7,S1pr1,F2rl1,Myo1f,Add3,Arhgef18</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>GO:0035150</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>regulation of tube size</t>
-        </is>
-      </c>
-      <c r="E85" s="2" t="n">
-        <v>-2.7517150421</v>
-      </c>
-      <c r="F85" s="3" t="n">
-        <v>-0.2280395056</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>3/49</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>14063,16598,27360</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>F2rl1,Klf2,Add3</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>GO:0035296</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>regulation of tube diameter</t>
-        </is>
-      </c>
-      <c r="E86" s="2" t="n">
-        <v>-2.7517150421</v>
-      </c>
-      <c r="F86" s="3" t="n">
-        <v>-0.2280395056</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>3/49</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>14063,16598,27360</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>F2rl1,Klf2,Add3</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>GO:0097746</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>blood vessel diameter maintenance</t>
-        </is>
-      </c>
-      <c r="E87" s="2" t="n">
-        <v>-2.7517150421</v>
-      </c>
-      <c r="F87" s="3" t="n">
-        <v>-0.2280395056</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>3/49</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>14063,16598,27360</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>F2rl1,Klf2,Add3</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>GO:1901879</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>regulation of protein depolymerization</t>
-        </is>
-      </c>
-      <c r="E88" s="2" t="n">
-        <v>-2.6771639345</v>
-      </c>
-      <c r="F88" s="3" t="n">
-        <v>-0.2245070473</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>3/52</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>11518,14063,27360</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Add1,F2rl1,Add3</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>GO:0045807</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>positive regulation of endocytosis</t>
-        </is>
-      </c>
-      <c r="E89" s="2" t="n">
-        <v>-2.4005656925</v>
-      </c>
-      <c r="F89" s="3" t="n">
-        <v>-0.0517832656</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>3/65</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>11518,12775,14063</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Add1,Ccr7,F2rl1</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>GO:1902903</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>regulation of supramolecular fiber organization</t>
-        </is>
-      </c>
-      <c r="E90" s="2" t="n">
-        <v>-2.3967433992</v>
-      </c>
-      <c r="F90" s="3" t="n">
-        <v>-0.0517832656</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>5/216</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>11518,13609,14063,27360,102098</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Add1,S1pr1,F2rl1,Add3,Arhgef18</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>GO:0051261</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>protein depolymerization</t>
-        </is>
-      </c>
-      <c r="E91" s="2" t="n">
-        <v>-2.3453186694</v>
-      </c>
-      <c r="F91" s="3" t="n">
-        <v>-0.0157788947</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>3/68</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>11518,14063,27360</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Add1,F2rl1,Add3</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>GO:0003018</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>vascular process in circulatory system</t>
-        </is>
-      </c>
-      <c r="E92" s="2" t="n">
-        <v>-2.2756833139</v>
-      </c>
-      <c r="F92" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>3/72</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>14063,16598,27360</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>F2rl1,Klf2,Add3</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>GO:0051017</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>actin filament bundle assembly</t>
-        </is>
-      </c>
-      <c r="E93" s="2" t="n">
-        <v>-2.1635214161</v>
-      </c>
-      <c r="F93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>3/79</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>11518,13609,102098</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Add1,S1pr1,Arhgef18</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>GO:0061572</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>actin filament bundle organization</t>
-        </is>
-      </c>
-      <c r="E94" s="2" t="n">
-        <v>-2.1484014824</v>
-      </c>
-      <c r="F94" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>3/80</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>11518,13609,102098</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Add1,S1pr1,Arhgef18</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>GO:0043244</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>regulation of protein-containing complex disassembly</t>
-        </is>
-      </c>
-      <c r="E95" s="2" t="n">
-        <v>-2.1334901666</v>
-      </c>
-      <c r="F95" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>3/81</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>11518,14063,27360</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Add1,F2rl1,Add3</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>GO:0043624</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>cellular protein complex disassembly</t>
-        </is>
-      </c>
-      <c r="E96" s="2" t="n">
-        <v>-2.1042728161</v>
-      </c>
-      <c r="F96" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>3/83</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>11518,14063,27360</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Add1,F2rl1,Add3</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>GO:0030099</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>myeloid cell differentiation</t>
-        </is>
-      </c>
-      <c r="E97" s="2" t="n">
-        <v>-2.052858667</v>
-      </c>
-      <c r="F97" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>5/261</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>11518,12775,14063,16598,20304</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Add1,Ccr7,F2rl1,Klf2,Ccl5</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2_Member</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>GO:0097435</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>supramolecular fiber organization</t>
-        </is>
-      </c>
-      <c r="E98" s="2" t="n">
-        <v>-2.030046519</v>
-      </c>
-      <c r="F98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>6/372</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>11518,13609,14063,17916,27360,102098</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Add1,S1pr1,F2rl1,Myo1f,Add3,Arhgef18</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>3_Summary</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>GO:0007264</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>small GTPase mediated signal transduction</t>
-        </is>
-      </c>
-      <c r="E99" s="2" t="n">
-        <v>-3.011065675</v>
-      </c>
-      <c r="F99" s="3" t="n">
-        <v>-0.3761659785</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>6/236</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>14063,19395,19414,102098,193385,235323</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>F2rl1,Rasgrp2,Rasa3,Arhgef18,Ripor2,Usp28</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>3_Member</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>GO:0007264</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>small GTPase mediated signal transduction</t>
-        </is>
-      </c>
-      <c r="E100" s="2" t="n">
-        <v>-3.011065675</v>
-      </c>
-      <c r="F100" s="3" t="n">
-        <v>-0.3761659785</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>6/236</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>14063,19395,19414,102098,193385,235323</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>F2rl1,Rasgrp2,Rasa3,Arhgef18,Ripor2,Usp28</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>3_Member</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>GO:0035023</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>regulation of Rho protein signal transduction</t>
-        </is>
-      </c>
-      <c r="E101" s="2" t="n">
-        <v>-2.8313680228</v>
-      </c>
-      <c r="F101" s="3" t="n">
-        <v>-0.2625714359</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>3/46</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>14063,102098,193385</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>F2rl1,Arhgef18,Ripor2</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>3_Member</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>GO:0007265</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Ras protein signal transduction</t>
-        </is>
-      </c>
-      <c r="E102" s="2" t="n">
-        <v>-2.6879204186</v>
-      </c>
-      <c r="F102" s="3" t="n">
-        <v>-0.2245070473</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>5/185</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>14063,19414,102098,193385,235323</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>F2rl1,Rasa3,Arhgef18,Ripor2,Usp28</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>3_Member</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>GO:0046578</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>regulation of Ras protein signal transduction</t>
-        </is>
-      </c>
-      <c r="E103" s="2" t="n">
-        <v>-2.6756319167</v>
-      </c>
-      <c r="F103" s="3" t="n">
-        <v>-0.2245070473</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>4/111</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>14063,19414,102098,193385</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>F2rl1,Rasa3,Arhgef18,Ripor2</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>3_Member</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>GO:0051056</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>regulation of small GTPase mediated signal transduction</t>
-        </is>
-      </c>
-      <c r="E104" s="2" t="n">
-        <v>-2.4269513318</v>
-      </c>
-      <c r="F104" s="3" t="n">
-        <v>-0.0562832541</v>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>4/130</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>14063,19414,102098,193385</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>F2rl1,Rasa3,Arhgef18,Ripor2</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>3_Member</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>GO:0007266</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Rho protein signal transduction</t>
-        </is>
-      </c>
-      <c r="E105" s="2" t="n">
-        <v>-2.4005656925</v>
-      </c>
-      <c r="F105" s="3" t="n">
-        <v>-0.0517832656</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>3/65</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>14063,102098,193385</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>F2rl1,Arhgef18,Ripor2</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>4_Summary</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>GO:0001818</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>negative regulation of cytokine production</t>
-        </is>
-      </c>
-      <c r="E106" s="2" t="n">
-        <v>-2.9921769708</v>
-      </c>
-      <c r="F106" s="3" t="n">
-        <v>-0.3761659785</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>5/158</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>12775,14063,16598,96875,217410,13136,20304</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>Ccr7,F2rl1,Klf2,Prg4,Trib2,Cd55,Ccl5</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>4_Member</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>GO:0001818</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>negative regulation of cytokine production</t>
-        </is>
-      </c>
-      <c r="E107" s="2" t="n">
-        <v>-2.9921769708</v>
-      </c>
-      <c r="F107" s="3" t="n">
-        <v>-0.3761659785</v>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>5/158</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>12775,14063,16598,96875,217410</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Ccr7,F2rl1,Klf2,Prg4,Trib2</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>4_Member</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>GO:0001817</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>regulation of cytokine production</t>
-        </is>
-      </c>
-      <c r="E108" s="2" t="n">
-        <v>-2.4865121154</v>
-      </c>
-      <c r="F108" s="3" t="n">
-        <v>-0.0798063858</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>7/403</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>12775,13136,14063,16598,20304,96875,217410</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Ccr7,Cd55,F2rl1,Klf2,Ccl5,Prg4,Trib2</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>4_Member</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>GO:0032675</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>regulation of interleukin-6 production</t>
-        </is>
-      </c>
-      <c r="E109" s="2" t="n">
-        <v>-2.1042728161</v>
-      </c>
-      <c r="F109" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>3/83</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>14063,16598,96875</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>F2rl1,Klf2,Prg4</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>4_Member</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>GO:0032635</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>interleukin-6 production</t>
-        </is>
-      </c>
-      <c r="E110" s="2" t="n">
-        <v>-2.0345391796</v>
-      </c>
-      <c r="F110" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>3/88</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>14063,16598,96875</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>F2rl1,Klf2,Prg4</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>5_Summary</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Reactome Gene Sets</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>R-MMU-109581</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Apoptosis</t>
-        </is>
-      </c>
-      <c r="E111" s="2" t="n">
-        <v>-2.1484014824</v>
-      </c>
-      <c r="F111" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>3/80</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>11518,14957,74268</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>Add1,H1f3,Aven</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>5_Member</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Reactome Gene Sets</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>R-MMU-109581</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Apoptosis</t>
-        </is>
-      </c>
-      <c r="E112" s="2" t="n">
-        <v>-2.1484014824</v>
-      </c>
-      <c r="F112" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>3/80</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>11518,14957,74268</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Add1,H1f3,Aven</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>6_Summary</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>GO:0002253</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>activation of immune response</t>
-        </is>
-      </c>
-      <c r="E113" s="2" t="n">
-        <v>-2.0442910281</v>
-      </c>
-      <c r="F113" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>4/167</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>12775,13136,77647,239743</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Ccr7,Cd55,Trat1,Klhl6</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>6_Member</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>GO Biological Processes</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>GO:0002253</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>activation of immune response</t>
-        </is>
-      </c>
-      <c r="E114" s="2" t="n">
-        <v>-2.0442910281</v>
-      </c>
-      <c r="F114" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>4/167</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>12775,13136,77647,239743</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>Ccr7,Cd55,Trat1,Klhl6</t>
+          <t>Dnah8,S1pr1,Emp3,Ccl5</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C114">
+  <conditionalFormatting sqref="C2:C64">
     <cfRule type="expression" priority="1" dxfId="0">
       <formula>1=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A113">
+  <conditionalFormatting sqref="A2:A63">
     <cfRule type="expression" priority="2" dxfId="3" stopIfTrue="0">
       <formula>RIGHT(A2,1)="y"</formula>
     </cfRule>
@@ -8473,7 +6489,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E113">
+  <conditionalFormatting sqref="E2:E63">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="-6"/>
@@ -8485,7 +6501,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F113">
+  <conditionalFormatting sqref="F2:F63">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="-6"/>
